--- a/kenya_stats_economic.xlsx
+++ b/kenya_stats_economic.xlsx
@@ -58,6 +58,15 @@
     </r>
   </si>
   <si>
+    <t>Water supply/ waste collection</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and retail trade/repair of motor vehicles</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="7.5"/>
@@ -65,11 +74,14 @@
         <rFont val="Trebuchet MS"/>
         <charset val="134"/>
       </rPr>
-      <t>Water supply; waste collection</t>
-    </r>
-  </si>
-  <si>
-    <t>Construction</t>
+      <t>Transport and storage</t>
+    </r>
+  </si>
+  <si>
+    <t>Accommodation and food service activities</t>
+  </si>
+  <si>
+    <t>Informa- tion and communi- cation</t>
   </si>
   <si>
     <r>
@@ -79,7 +91,7 @@
         <rFont val="Trebuchet MS"/>
         <charset val="134"/>
       </rPr>
-      <t>Wholesale and retail trade; repair of motor vehicles</t>
+      <t>Financial and insurance activities</t>
     </r>
   </si>
   <si>
@@ -90,74 +102,14 @@
         <rFont val="Trebuchet MS"/>
         <charset val="134"/>
       </rPr>
-      <t>Transport and storage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Accom- modation and food service activities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Informa- tion and communi- cation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Financial and insurance activities</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="134"/>
-      </rPr>
       <t>Real estate activities</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Profes- sional, technical and support services</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7.5"/>
-        <color rgb="FF231F20"/>
-        <rFont val="Trebuchet MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Public admin- istration and defence</t>
-    </r>
+    <t>Professional, technical and support services</t>
+  </si>
+  <si>
+    <t>Public administration and defence</t>
   </si>
   <si>
     <r>
@@ -737,11 +689,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0;\-#,##0"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -790,31 +742,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,9 +765,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,69 +865,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -940,13 +892,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,55 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,25 +958,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1054,31 +1006,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,19 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,7 +1036,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1162,17 +1114,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,7 +1127,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,17 +1162,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1239,165 +1211,145 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1407,7 +1359,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1421,7 +1373,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,7 +1382,7 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1397,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,7 +1406,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1469,6 +1421,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -1481,10 +1436,10 @@
     <xf numFmtId="37" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="37" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1815,7 +1770,7 @@
   <dimension ref="A1:V48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1846,22 +1801,22 @@
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="20" t="s">
@@ -1870,28 +1825,28 @@
       <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="28"/>
+      <c r="V1" s="29"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="5">
@@ -1951,13 +1906,13 @@
       <c r="S2" s="14">
         <v>2379</v>
       </c>
-      <c r="T2" s="24">
+      <c r="T2" s="25">
         <v>-17026</v>
       </c>
       <c r="U2" s="14">
         <v>332122</v>
       </c>
-      <c r="V2" s="28"/>
+      <c r="V2" s="29"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="8">
@@ -2017,13 +1972,13 @@
       <c r="S3" s="17">
         <v>1647</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="26">
         <v>-526</v>
       </c>
       <c r="U3" s="17">
         <v>86278</v>
       </c>
-      <c r="V3" s="28"/>
+      <c r="V3" s="29"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="5">
@@ -2083,13 +2038,13 @@
       <c r="S4" s="14">
         <v>2810</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="25">
         <v>-1329</v>
       </c>
       <c r="U4" s="14">
         <v>119295</v>
       </c>
-      <c r="V4" s="28"/>
+      <c r="V4" s="29"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="8">
@@ -2149,13 +2104,13 @@
       <c r="S5" s="18">
         <v>608</v>
       </c>
-      <c r="T5" s="25">
+      <c r="T5" s="26">
         <v>-158</v>
       </c>
       <c r="U5" s="17">
         <v>33498</v>
       </c>
-      <c r="V5" s="28"/>
+      <c r="V5" s="29"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="5">
@@ -2215,13 +2170,13 @@
       <c r="S6" s="15">
         <v>257</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="27">
         <v>-167</v>
       </c>
       <c r="U6" s="14">
         <v>32386</v>
       </c>
-      <c r="V6" s="28"/>
+      <c r="V6" s="29"/>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="8">
@@ -2281,13 +2236,13 @@
       <c r="S7" s="18">
         <v>721</v>
       </c>
-      <c r="T7" s="25">
+      <c r="T7" s="26">
         <v>-393</v>
       </c>
       <c r="U7" s="17">
         <v>51381</v>
       </c>
-      <c r="V7" s="28"/>
+      <c r="V7" s="29"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="5">
@@ -2347,13 +2302,13 @@
       <c r="S8" s="15">
         <v>881</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="27">
         <v>-358</v>
       </c>
       <c r="U8" s="14">
         <v>39394</v>
       </c>
-      <c r="V8" s="28"/>
+      <c r="V8" s="29"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="8">
@@ -2413,13 +2368,13 @@
       <c r="S9" s="18">
         <v>936</v>
       </c>
-      <c r="T9" s="25">
+      <c r="T9" s="26">
         <v>-108</v>
       </c>
       <c r="U9" s="17">
         <v>37159</v>
       </c>
-      <c r="V9" s="28"/>
+      <c r="V9" s="29"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="5">
@@ -2479,13 +2434,13 @@
       <c r="S10" s="14">
         <v>1450</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="27">
         <v>-78</v>
       </c>
       <c r="U10" s="14">
         <v>35101</v>
       </c>
-      <c r="V10" s="28"/>
+      <c r="V10" s="29"/>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="8">
@@ -2545,13 +2500,13 @@
       <c r="S11" s="18">
         <v>650</v>
       </c>
-      <c r="T11" s="25">
+      <c r="T11" s="26">
         <v>-169</v>
       </c>
       <c r="U11" s="17">
         <v>34073</v>
       </c>
-      <c r="V11" s="28"/>
+      <c r="V11" s="29"/>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="5">
@@ -2611,13 +2566,13 @@
       <c r="S12" s="15">
         <v>320</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="27">
         <v>-270</v>
       </c>
       <c r="U12" s="14">
         <v>15850</v>
       </c>
-      <c r="V12" s="28"/>
+      <c r="V12" s="29"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="8">
@@ -2677,13 +2632,13 @@
       <c r="S13" s="17">
         <v>3024</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="28">
         <v>-2351</v>
       </c>
       <c r="U13" s="17">
         <v>229646</v>
       </c>
-      <c r="V13" s="28"/>
+      <c r="V13" s="29"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5">
@@ -2743,13 +2698,13 @@
       <c r="S14" s="15">
         <v>814</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="27">
         <v>-252</v>
       </c>
       <c r="U14" s="14">
         <v>67692</v>
       </c>
-      <c r="V14" s="28"/>
+      <c r="V14" s="29"/>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="8">
@@ -2809,13 +2764,13 @@
       <c r="S15" s="17">
         <v>1151</v>
       </c>
-      <c r="T15" s="25">
+      <c r="T15" s="26">
         <v>-758</v>
       </c>
       <c r="U15" s="17">
         <v>103734</v>
       </c>
-      <c r="V15" s="28"/>
+      <c r="V15" s="29"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="5">
@@ -2875,13 +2830,13 @@
       <c r="S16" s="14">
         <v>2257</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="27">
         <v>-830</v>
       </c>
       <c r="U16" s="14">
         <v>101560</v>
       </c>
-      <c r="V16" s="28"/>
+      <c r="V16" s="29"/>
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="8">
@@ -2941,13 +2896,13 @@
       <c r="S17" s="17">
         <v>2449</v>
       </c>
-      <c r="T17" s="27">
+      <c r="T17" s="28">
         <v>-2112</v>
       </c>
       <c r="U17" s="17">
         <v>232860</v>
       </c>
-      <c r="V17" s="28"/>
+      <c r="V17" s="29"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5">
@@ -3007,13 +2962,13 @@
       <c r="S18" s="14">
         <v>1972</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18" s="27">
         <v>-703</v>
       </c>
       <c r="U18" s="14">
         <v>100924</v>
       </c>
-      <c r="V18" s="28"/>
+      <c r="V18" s="29"/>
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="8">
@@ -3073,13 +3028,13 @@
       <c r="S19" s="17">
         <v>1398</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="26">
         <v>-492</v>
       </c>
       <c r="U19" s="17">
         <v>245203</v>
       </c>
-      <c r="V19" s="28"/>
+      <c r="V19" s="29"/>
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="5">
@@ -3139,13 +3094,13 @@
       <c r="S20" s="14">
         <v>1626</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="25">
         <v>-1612</v>
       </c>
       <c r="U20" s="14">
         <v>174961</v>
       </c>
-      <c r="V20" s="28"/>
+      <c r="V20" s="29"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="8">
@@ -3205,13 +3160,13 @@
       <c r="S21" s="17">
         <v>1238</v>
       </c>
-      <c r="T21" s="25">
+      <c r="T21" s="26">
         <v>-937</v>
       </c>
       <c r="U21" s="17">
         <v>100836</v>
       </c>
-      <c r="V21" s="28"/>
+      <c r="V21" s="29"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="5">
@@ -3271,13 +3226,13 @@
       <c r="S22" s="14">
         <v>2210</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="27">
         <v>-956</v>
       </c>
       <c r="U22" s="14">
         <v>173018</v>
       </c>
-      <c r="V22" s="28"/>
+      <c r="V22" s="29"/>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="8">
@@ -3337,13 +3292,13 @@
       <c r="S23" s="17">
         <v>3805</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="28">
         <v>-7717</v>
       </c>
       <c r="U23" s="17">
         <v>421918</v>
       </c>
-      <c r="V23" s="28"/>
+      <c r="V23" s="29"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5">
@@ -3403,13 +3358,13 @@
       <c r="S24" s="14">
         <v>2172</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T24" s="27">
         <v>-290</v>
       </c>
       <c r="U24" s="14">
         <v>78301</v>
       </c>
-      <c r="V24" s="28"/>
+      <c r="V24" s="29"/>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="8">
@@ -3469,13 +3424,13 @@
       <c r="S25" s="17">
         <v>1302</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25" s="26">
         <v>-176</v>
       </c>
       <c r="U25" s="17">
         <v>46785</v>
       </c>
-      <c r="V25" s="28"/>
+      <c r="V25" s="29"/>
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="5">
@@ -3535,13 +3490,13 @@
       <c r="S26" s="15">
         <v>569</v>
       </c>
-      <c r="T26" s="26">
+      <c r="T26" s="27">
         <v>-142</v>
       </c>
       <c r="U26" s="14">
         <v>26503</v>
       </c>
-      <c r="V26" s="28"/>
+      <c r="V26" s="29"/>
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="8">
@@ -3601,13 +3556,13 @@
       <c r="S27" s="17">
         <v>2079</v>
       </c>
-      <c r="T27" s="27">
+      <c r="T27" s="28">
         <v>-1129</v>
       </c>
       <c r="U27" s="17">
         <v>116683</v>
       </c>
-      <c r="V27" s="28"/>
+      <c r="V27" s="29"/>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5">
@@ -3667,13 +3622,13 @@
       <c r="S28" s="14">
         <v>2270</v>
       </c>
-      <c r="T28" s="24">
+      <c r="T28" s="25">
         <v>-8843</v>
       </c>
       <c r="U28" s="14">
         <v>162273</v>
       </c>
-      <c r="V28" s="28"/>
+      <c r="V28" s="29"/>
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="8">
@@ -3733,13 +3688,13 @@
       <c r="S29" s="18">
         <v>940</v>
       </c>
-      <c r="T29" s="25">
+      <c r="T29" s="26">
         <v>-131</v>
       </c>
       <c r="U29" s="17">
         <v>159531</v>
       </c>
-      <c r="V29" s="28"/>
+      <c r="V29" s="29"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="13">
@@ -3799,7 +3754,7 @@
       <c r="S30" s="14">
         <v>1912</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="27">
         <v>-709</v>
       </c>
       <c r="U30" s="14">
@@ -3864,7 +3819,7 @@
       <c r="S31" s="17">
         <v>1411</v>
       </c>
-      <c r="T31" s="25">
+      <c r="T31" s="26">
         <v>-488</v>
       </c>
       <c r="U31" s="17">
@@ -3929,7 +3884,7 @@
       <c r="S32" s="14">
         <v>1014</v>
       </c>
-      <c r="T32" s="26">
+      <c r="T32" s="27">
         <v>-763</v>
       </c>
       <c r="U32" s="14">
@@ -3994,7 +3949,7 @@
       <c r="S33" s="17">
         <v>4071</v>
       </c>
-      <c r="T33" s="27">
+      <c r="T33" s="28">
         <v>-5885</v>
       </c>
       <c r="U33" s="17">
@@ -4059,7 +4014,7 @@
       <c r="S34" s="14">
         <v>2160</v>
       </c>
-      <c r="T34" s="26">
+      <c r="T34" s="27">
         <v>-876</v>
       </c>
       <c r="U34" s="14">
@@ -4124,7 +4079,7 @@
       <c r="S35" s="17">
         <v>1745</v>
       </c>
-      <c r="T35" s="27">
+      <c r="T35" s="28">
         <v>-2430</v>
       </c>
       <c r="U35" s="17">
@@ -4189,7 +4144,7 @@
       <c r="S36" s="14">
         <v>1925</v>
       </c>
-      <c r="T36" s="24">
+      <c r="T36" s="25">
         <v>-1406</v>
       </c>
       <c r="U36" s="14">
@@ -4254,7 +4209,7 @@
       <c r="S37" s="17">
         <v>1839</v>
       </c>
-      <c r="T37" s="25">
+      <c r="T37" s="26">
         <v>-577</v>
       </c>
       <c r="U37" s="17">
@@ -4319,7 +4274,7 @@
       <c r="S38" s="14">
         <v>3829</v>
       </c>
-      <c r="T38" s="24">
+      <c r="T38" s="25">
         <v>-1421</v>
       </c>
       <c r="U38" s="14">
@@ -4384,7 +4339,7 @@
       <c r="S39" s="17">
         <v>1279</v>
       </c>
-      <c r="T39" s="25">
+      <c r="T39" s="26">
         <v>-471</v>
       </c>
       <c r="U39" s="17">
@@ -4449,7 +4404,7 @@
       <c r="S40" s="14">
         <v>3761</v>
       </c>
-      <c r="T40" s="24">
+      <c r="T40" s="25">
         <v>-1574</v>
       </c>
       <c r="U40" s="14">
@@ -4514,7 +4469,7 @@
       <c r="S41" s="17">
         <v>1126</v>
       </c>
-      <c r="T41" s="25">
+      <c r="T41" s="26">
         <v>-539</v>
       </c>
       <c r="U41" s="17">
@@ -4579,7 +4534,7 @@
       <c r="S42" s="14">
         <v>2000</v>
       </c>
-      <c r="T42" s="26">
+      <c r="T42" s="27">
         <v>-406</v>
       </c>
       <c r="U42" s="14">
@@ -4644,7 +4599,7 @@
       <c r="S43" s="17">
         <v>2301</v>
       </c>
-      <c r="T43" s="27">
+      <c r="T43" s="28">
         <v>-5074</v>
       </c>
       <c r="U43" s="17">
@@ -4709,7 +4664,7 @@
       <c r="S44" s="14">
         <v>2289</v>
       </c>
-      <c r="T44" s="26">
+      <c r="T44" s="27">
         <v>-624</v>
       </c>
       <c r="U44" s="14">
@@ -4774,7 +4729,7 @@
       <c r="S45" s="17">
         <v>2178</v>
       </c>
-      <c r="T45" s="25">
+      <c r="T45" s="26">
         <v>-716</v>
       </c>
       <c r="U45" s="17">
@@ -4839,7 +4794,7 @@
       <c r="S46" s="14">
         <v>2736</v>
       </c>
-      <c r="T46" s="24">
+      <c r="T46" s="25">
         <v>-1886</v>
       </c>
       <c r="U46" s="14">
@@ -4904,7 +4859,7 @@
       <c r="S47" s="17">
         <v>1421</v>
       </c>
-      <c r="T47" s="25">
+      <c r="T47" s="26">
         <v>-473</v>
       </c>
       <c r="U47" s="17">
@@ -4969,7 +4924,7 @@
       <c r="S48" s="14">
         <v>8791</v>
       </c>
-      <c r="T48" s="24">
+      <c r="T48" s="25">
         <v>-168283</v>
       </c>
       <c r="U48" s="14">
